--- a/Графики/Лаб2.xlsx
+++ b/Графики/Лаб2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danya\Desktop\учебка\интерфейсы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danya\source\repos\Interfaces_all_labs\Графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341018DD-AC47-4AB8-9CB9-D353D1DBA525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438413E5-4003-4DC6-91D7-F898188E9D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -989,7 +989,9 @@
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
@@ -4432,8 +4434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB11C13-B165-4052-BB9E-6E842D464D4D}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4803,7 +4805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91BB1E93-6603-4E80-A1B5-606642DEA5A8}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>

--- a/Графики/Лаб2.xlsx
+++ b/Графики/Лаб2.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danya\source\repos\Interfaces_all_labs\Графики\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danya\Desktop\учебка\интерфейсы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A1751F-B9B3-4CE8-858C-9A41469B3E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F158EE-F77F-4B1B-A9E0-1B2C7732C405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="3" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="4" r:id="rId3"/>
+    <sheet name="Эксперимент 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Эксперимент 2.1" sheetId="3" r:id="rId2"/>
+    <sheet name="Эксперимент 2.2" sheetId="4" r:id="rId3"/>
+    <sheet name="Эксперименты 2.1 и 2.2" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="7">
   <si>
     <t>Color [Blue]</t>
   </si>
@@ -255,7 +256,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$A$1:$A$8</c:f>
+              <c:f>'Эксперимент 1'!$A$1:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -288,7 +289,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$B$1:$B$8</c:f>
+              <c:f>'Эксперимент 1'!$B$1:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -772,7 +773,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист2!$A$1:$A$8</c:f>
+              <c:f>'Эксперимент 2.1'!$A$1:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -805,7 +806,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист2!$C$1:$C$8</c:f>
+              <c:f>'Эксперимент 2.1'!$C$1:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -887,7 +888,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист2!$A$9:$A$16</c:f>
+              <c:f>'Эксперимент 2.1'!$A$9:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -920,7 +921,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист2!$C$9:$C$16</c:f>
+              <c:f>'Эксперимент 2.1'!$C$9:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1002,7 +1003,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист2!$A$17:$A$24</c:f>
+              <c:f>'Эксперимент 2.1'!$A$17:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1035,7 +1036,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист2!$C$17:$C$24</c:f>
+              <c:f>'Эксперимент 2.1'!$C$17:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1117,7 +1118,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист2!$A$25:$A$32</c:f>
+              <c:f>'Эксперимент 2.1'!$A$25:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1150,7 +1151,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист2!$C$25:$C$32</c:f>
+              <c:f>'Эксперимент 2.1'!$C$25:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1656,7 +1657,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист3!$A$1:$A$8</c:f>
+              <c:f>'Эксперимент 2.2'!$A$1:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1689,7 +1690,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист3!$C$1:$C$8</c:f>
+              <c:f>'Эксперимент 2.2'!$C$1:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1771,7 +1772,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист3!$A$9:$A$16</c:f>
+              <c:f>'Эксперимент 2.2'!$A$9:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1804,7 +1805,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист3!$C$9:$C$16</c:f>
+              <c:f>'Эксперимент 2.2'!$C$9:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1886,7 +1887,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист3!$A$17:$A$24</c:f>
+              <c:f>'Эксперимент 2.2'!$A$17:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1919,7 +1920,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист3!$C$17:$C$24</c:f>
+              <c:f>'Эксперимент 2.2'!$C$17:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2295,6 +2296,1268 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>t(n) </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>с разными цветами и начертаниями</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> шрифта</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>White</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Эксперименты 2.1 и 2.2'!$A$1:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Эксперименты 2.1 и 2.2'!$C$1:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>613.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>635.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>683</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>751.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>806.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>843</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>832.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>878.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BB0A-4925-AAF6-4EF6DBCE2618}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Green</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Эксперименты 2.1 и 2.2'!$A$9:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Эксперименты 2.1 и 2.2'!$C$9:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>942.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>614.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>624.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>768.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>815.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>750.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>863.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BB0A-4925-AAF6-4EF6DBCE2618}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Blue</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Эксперименты 2.1 и 2.2'!$A$17:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Эксперименты 2.1 и 2.2'!$C$17:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>635</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>620.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>687</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>626</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>744</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>843.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>767</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>761.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-BB0A-4925-AAF6-4EF6DBCE2618}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Red</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Эксперименты 2.1 и 2.2'!$A$26:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Эксперименты 2.1 и 2.2'!$C$25:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>619.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>580.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>637.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>547.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>615.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>568.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>623.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>765.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-BB0A-4925-AAF6-4EF6DBCE2618}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Bold</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Эксперименты 2.1 и 2.2'!$E$1:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Эксперименты 2.1 и 2.2'!$G$1:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>584.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>610.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>581.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>801.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1097.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>814.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>802</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>815.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-BB0A-4925-AAF6-4EF6DBCE2618}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Italic</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Эксперименты 2.1 и 2.2'!$E$9:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Эксперименты 2.1 и 2.2'!$G$9:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1059</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1165.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1164.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1394.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1103.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1084.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1102.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1415</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-BB0A-4925-AAF6-4EF6DBCE2618}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Underline</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Эксперименты 2.1 и 2.2'!$E$17:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Эксперименты 2.1 и 2.2'!$G$17:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>675.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>529.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>626.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>555.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>680.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>768.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>888.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-BB0A-4925-AAF6-4EF6DBCE2618}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1972242480"/>
+        <c:axId val="1972220880"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1972242480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Количество объектов в штуках, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>n</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1972220880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1972220880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Время в мс</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>, t</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1972242480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.76583135492124654"/>
+          <c:y val="0.14058529363036315"/>
+          <c:w val="0.21245533224885968"/>
+          <c:h val="0.60752588781733219"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2415,6 +3678,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3448,6 +4751,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4066,6 +5885,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D2C7BAF-D609-09C7-1FA4-939233FA8B9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F885C2F-D837-3611-97AF-283464EE686D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4431,8 +6291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB11C13-B165-4052-BB9E-6E842D464D4D}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4803,7 +6663,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5079,4 +6939,592 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA09EDC-9C60-4DD1-B94C-61B25E2AE156}">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1">
+        <v>613.4</v>
+      </c>
+      <c r="E1">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>584.4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>635.20000000000005</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>610.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>683</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>581.20000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>751.8</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>801.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>806.2</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>1097.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>843</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>814.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>832.6</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>878.6</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>815.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>942.2</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>614.79999999999995</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>1165.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>624.6</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>1164.5999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>732</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>1394.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>768.6</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>1103.5999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>815.6</v>
+      </c>
+      <c r="E14">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>1084.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>750.2</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>1102.5999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>863.8</v>
+      </c>
+      <c r="E16">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>635</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>675.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>620.79999999999995</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18">
+        <v>529.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>687</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19">
+        <v>626.20000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>626</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <v>555.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>744</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>843.6</v>
+      </c>
+      <c r="E22">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22">
+        <v>680.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>767</v>
+      </c>
+      <c r="E23">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23">
+        <v>768.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>761.2</v>
+      </c>
+      <c r="E24">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24">
+        <v>888.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>619.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>580.20000000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>637.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>547.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>615.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>568.20000000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>623.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>765.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>